--- a/data/trans_dic/CoTrAQ_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/CoTrAQ_R-Clase-trans_dic.xlsx
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.8293665865984035</v>
+        <v>0.8282659145409678</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.6910215856485686</v>
+        <v>0.6958944132865722</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.780171415799975</v>
+        <v>0.7786249984091674</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.6065684876888404</v>
+        <v>0.6129681884187591</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.8227824721634556</v>
+        <v>0.8261687848661781</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.677518678642876</v>
+        <v>0.6781308659891216</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.9087380015361185</v>
+        <v>0.9104582741495761</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.8035278448842857</v>
+        <v>0.8074512669254359</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.8920588569042918</v>
+        <v>0.8910642740004446</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.7369449359738163</v>
+        <v>0.7397230988690506</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.8926793158279734</v>
+        <v>0.8903785014980133</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.7605169959356433</v>
+        <v>0.7577338956295958</v>
       </c>
     </row>
     <row r="7">
@@ -717,22 +717,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.6918436035416033</v>
+        <v>0.6939224566195585</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.5222231517723984</v>
+        <v>0.5214183990452863</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.5656154247556201</v>
+        <v>0.5605077243467375</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.3924322588288567</v>
+        <v>0.3892212100205091</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.6672743565145846</v>
+        <v>0.6652462627001151</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.4801043631291383</v>
+        <v>0.4859997542720514</v>
       </c>
     </row>
     <row r="9">
@@ -743,22 +743,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.813138898899154</v>
+        <v>0.8135669438598226</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.6530644134433983</v>
+        <v>0.6560652552714867</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.7343602719091898</v>
+        <v>0.7272525298477438</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.5386547295127266</v>
+        <v>0.5326599967991612</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.7634230124998784</v>
+        <v>0.7610450674480512</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.5834314918588717</v>
+        <v>0.5836549575744482</v>
       </c>
     </row>
     <row r="10">
@@ -799,22 +799,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.7265831289234774</v>
+        <v>0.726541533705907</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.5935793845495582</v>
+        <v>0.5892996691677409</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.7509569417365453</v>
+        <v>0.7423941299739578</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.764046535714116</v>
+        <v>0.751866138237156</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.7492116281877095</v>
+        <v>0.7489448260300199</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.6491366054389146</v>
+        <v>0.6493960399892359</v>
       </c>
     </row>
     <row r="12">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.8256442928773807</v>
+        <v>0.8264292047932675</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.7240225606654014</v>
+        <v>0.7273674497516774</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.8956131718392883</v>
+        <v>0.8954540793507245</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.9280812432354572</v>
+        <v>0.9282961677083749</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.830764013241709</v>
+        <v>0.8323061262650817</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.7617266278529684</v>
+        <v>0.7618307319937143</v>
       </c>
     </row>
     <row r="13">
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.5361512803985489</v>
+        <v>0.5411002392787181</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.3881447698931767</v>
+        <v>0.3909019818542774</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.5079135451117345</v>
+        <v>0.5135333438148996</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.4060782937619729</v>
+        <v>0.4119999173193609</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.5477384679867121</v>
+        <v>0.5452481550500746</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.4117095962769197</v>
+        <v>0.4127360752457109</v>
       </c>
     </row>
     <row r="15">
@@ -907,22 +907,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.6398660556463882</v>
+        <v>0.6390632913779961</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.4801294933640036</v>
+        <v>0.4806949038372757</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.6275400141361895</v>
+        <v>0.631642614495742</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.5151976164452182</v>
+        <v>0.5116598881110112</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.620236847183615</v>
+        <v>0.6225153322164396</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.4785453246952171</v>
+        <v>0.4796823853381816</v>
       </c>
     </row>
     <row r="16">
@@ -963,22 +963,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.4123249640566004</v>
+        <v>0.4092730642706022</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2593484441908327</v>
+        <v>0.270944317277708</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.4020727851665731</v>
+        <v>0.4047770962421809</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.2318832221529585</v>
+        <v>0.234520919493528</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.4352842159454715</v>
+        <v>0.4362242789721476</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.269798625156303</v>
+        <v>0.2658579778599782</v>
       </c>
     </row>
     <row r="18">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.582692165603315</v>
+        <v>0.5777436573602829</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.3985071947385882</v>
+        <v>0.4050667551099815</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.5636834767489272</v>
+        <v>0.5671589245660229</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.356536679515637</v>
+        <v>0.3591566207316704</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.5460716154795948</v>
+        <v>0.5574297989736093</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.3623224322832371</v>
+        <v>0.358055691974682</v>
       </c>
     </row>
     <row r="19">
@@ -1045,22 +1045,22 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.685137028801995</v>
+        <v>0.6847431673637357</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.517802795942401</v>
+        <v>0.5133715444175843</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.6202432212112061</v>
+        <v>0.6217215309081292</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.469059125112113</v>
+        <v>0.4658408710090554</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.6682922689137329</v>
+        <v>0.665592967169786</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.5053595175574637</v>
+        <v>0.504525131748658</v>
       </c>
     </row>
     <row r="21">
@@ -1071,22 +1071,22 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.7355721422975993</v>
+        <v>0.7344512556434565</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.5710816611873898</v>
+        <v>0.5686065816856961</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.686219647249186</v>
+        <v>0.6875571341638983</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.5317279512502816</v>
+        <v>0.5270709952606069</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.709297008289367</v>
+        <v>0.7074078934879804</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.5460392969530802</v>
+        <v>0.5460014739174851</v>
       </c>
     </row>
     <row r="22">
@@ -1274,22 +1274,22 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>245358</v>
+        <v>245033</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>190759</v>
+        <v>192104</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>146808</v>
+        <v>146517</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>129911</v>
+        <v>131282</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>398237</v>
+        <v>399876</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>332138</v>
+        <v>332438</v>
       </c>
     </row>
     <row r="7">
@@ -1300,22 +1300,22 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>268839</v>
+        <v>269348</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>221816</v>
+        <v>222899</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>167862</v>
+        <v>167675</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>157834</v>
+        <v>158429</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>432068</v>
+        <v>430954</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>372826</v>
+        <v>371462</v>
       </c>
     </row>
     <row r="8">
@@ -1382,22 +1382,22 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>172663</v>
+        <v>173182</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>127024</v>
+        <v>126828</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>86257</v>
+        <v>85478</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>74239</v>
+        <v>73631</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>268290</v>
+        <v>267475</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>207603</v>
+        <v>210153</v>
       </c>
     </row>
     <row r="11">
@@ -1408,22 +1408,22 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>202934</v>
+        <v>203041</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>158849</v>
+        <v>159579</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>111991</v>
+        <v>110907</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>101901</v>
+        <v>100766</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>306949</v>
+        <v>305993</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>252283</v>
+        <v>252380</v>
       </c>
     </row>
     <row r="12">
@@ -1490,22 +1490,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>200241</v>
+        <v>200230</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>128406</v>
+        <v>127480</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>80016</v>
+        <v>79104</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>49753</v>
+        <v>48960</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>286307</v>
+        <v>286206</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>182695</v>
+        <v>182768</v>
       </c>
     </row>
     <row r="15">
@@ -1516,22 +1516,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>227542</v>
+        <v>227758</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>156624</v>
+        <v>157348</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>95429</v>
+        <v>95412</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>60435</v>
+        <v>60449</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>317472</v>
+        <v>318062</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>214383</v>
+        <v>214412</v>
       </c>
     </row>
     <row r="16">
@@ -1598,22 +1598,22 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>219469</v>
+        <v>221495</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>189299</v>
+        <v>190643</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>145160</v>
+        <v>146766</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>148195</v>
+        <v>150356</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>380754</v>
+        <v>379023</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>351041</v>
+        <v>351916</v>
       </c>
     </row>
     <row r="19">
@@ -1624,22 +1624,22 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>261923</v>
+        <v>261595</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>234160</v>
+        <v>234435</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>179349</v>
+        <v>180522</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>188017</v>
+        <v>186726</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>431150</v>
+        <v>432734</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>408028</v>
+        <v>408997</v>
       </c>
     </row>
     <row r="20">
@@ -1706,22 +1706,22 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>60008</v>
+        <v>59564</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>50060</v>
+        <v>52298</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>67838</v>
+        <v>68294</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>45825</v>
+        <v>46346</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>136791</v>
+        <v>137087</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>105394</v>
+        <v>103855</v>
       </c>
     </row>
     <row r="23">
@@ -1732,22 +1732,22 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>84802</v>
+        <v>84082</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>76921</v>
+        <v>78187</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>95105</v>
+        <v>95692</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>70458</v>
+        <v>70976</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>171607</v>
+        <v>175176</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>141538</v>
+        <v>139871</v>
       </c>
     </row>
     <row r="24">
@@ -1814,22 +1814,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>942664</v>
+        <v>942122</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>733383</v>
+        <v>727107</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>559301</v>
+        <v>560634</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>483614</v>
+        <v>480295</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>1522117</v>
+        <v>1515969</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>1236799</v>
+        <v>1234757</v>
       </c>
     </row>
     <row r="27">
@@ -1840,22 +1840,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>1012056</v>
+        <v>1010514</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>808844</v>
+        <v>805339</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>618795</v>
+        <v>620001</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>548227</v>
+        <v>543425</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1615510</v>
+        <v>1611207</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1336357</v>
+        <v>1336265</v>
       </c>
     </row>
     <row r="28">
